--- a/data/boxplot.xlsx
+++ b/data/boxplot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/jpark440_sundevils_asu_edu/Documents/Desktop/JWP/Research/GNN_RL_JSSP/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/jpark440_sundevils_asu_edu/Documents/Documents/GitHub/DGRL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D373AFA7-0CC0-4DD6-B72C-4859605E7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D373AFA7-0CC0-4DD6-B72C-4859605E7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6EA7F0-F34B-4616-98BC-3293677B5DB0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EFBD399F-4DBF-402D-826B-9431B3393BBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{EFBD399F-4DBF-402D-826B-9431B3393BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="la_v" sheetId="1" r:id="rId1"/>
@@ -445,9 +445,9 @@
       <selection sqref="A1:J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.4385986328125044</v>
       </c>
@@ -511,7 +511,7 @@
         <v>15.754385964912277</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8.9224975816694307</v>
       </c>
@@ -543,7 +543,7 @@
         <v>28.695652173913032</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.2054520133156377</v>
       </c>
@@ -575,7 +575,7 @@
         <v>21.048218029350107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8.9641434262948128</v>
       </c>
@@ -607,7 +607,7 @@
         <v>23.824701195219134</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.527350962031587</v>
       </c>
@@ -639,7 +639,7 @@
         <v>35.623632385120338</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4.505632040050056</v>
       </c>
@@ -671,7 +671,7 @@
         <v>26.182728410513146</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.7116138575392199</v>
       </c>
@@ -703,7 +703,7 @@
         <v>27.530040053404537</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.0849721073325176</v>
       </c>
@@ -735,7 +735,7 @@
         <v>24.156862745098028</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.0398621821878571</v>
       </c>
@@ -767,7 +767,7 @@
         <v>15.873388042203974</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.9850746268656803</v>
       </c>
@@ -799,7 +799,7 @@
         <v>19.800995024875622</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.6806722689075571</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14.453781512605035</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.7991466033153056</v>
       </c>
@@ -863,7 +863,7 @@
         <v>13.397435897435916</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.6974951830443183</v>
       </c>
@@ -895,7 +895,7 @@
         <v>14.701348747591503</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.3457966742113969</v>
       </c>
@@ -927,7 +927,7 @@
         <v>17.943925233644855</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.222228947859306</v>
       </c>
@@ -959,7 +959,7 @@
         <v>7.0339761248852106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.69735006973501434</v>
       </c>
@@ -991,7 +991,7 @@
         <v>9.344490934449091</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.1981443044940097</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>10.185758513931887</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.4826564414828427</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0.90497737556560764</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5.1863857374392142</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>9.5948136142625771</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7.0899519340070993</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>6.1640211640211717</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>7.8411925815175199</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>27.071960297766751</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8.3897158322056917</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>19.648173207036535</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5.5214723926380271</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>28.736196319018404</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12.072070501025589</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>30.398970398970416</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13.703708547763727</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>23.756613756613753</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.7647035660282695</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>21.992409867172679</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.2488501764112545</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>22.488479262672811</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.3271005220502747</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>34.59813084112151</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2.8571453132859137</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>36.539235412474859</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3.1805425631431294</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>37.623947614593092</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2.0921084755345376</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>18.657894736842096</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2.0506634499396936</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>20.217129071170081</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2.0173729620700076</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>11.583166332665339</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.9934837515269033</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>11.035830618892506</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2.9954825315727573</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>13.737895416397672</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.5611801469376241</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>6.8565400843881852</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2.6774872630894508</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9.2697768762677555</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.5026549969346501</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2.9904559915164386</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4.8806941431670303</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>6.2039045553145433</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3.2879606716295751</v>
       </c>
@@ -1772,9 +1772,9 @@
       <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>19.999999999999996</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>47.500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>65.384615384615373</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>76.92307692307692</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4.4117647058823595</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>48.529411764705884</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>26.666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6.9364161849710948</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>30.635838150289008</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>63.934426229508205</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>45.9016393442623</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50.704225352112672</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>50.704225352112672</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>26.959847036328878</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8.4690553745928376</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>45.928338762214985</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>29.126213592233018</v>
       </c>
@@ -2133,15 +2133,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D681FD96-288F-42B9-A9C0-7E2919079179}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J71"/>
+      <selection activeCell="Y26" sqref="Y25:Y26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2173,12 +2173,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11.594202898550732</v>
       </c>
       <c r="B2">
-        <v>11.51139474556806</v>
+        <v>11.097316070619833</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2205,12 +2205,12 @@
         <v>18.840579710144922</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13.87097055461548</v>
       </c>
       <c r="B3">
-        <v>13.317976569250423</v>
+        <v>13.87097055461548</v>
       </c>
       <c r="C3">
         <v>2.7649769585253559</v>
@@ -2237,12 +2237,12 @@
         <v>26.728110599078335</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13.260869565217392</v>
       </c>
       <c r="B4">
-        <v>12.260874872622285</v>
+        <v>12.173913043478258</v>
       </c>
       <c r="C4">
         <v>1.304347826086949</v>
@@ -2269,12 +2269,12 @@
         <v>22.608695652173914</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11.49674620390455</v>
       </c>
       <c r="B5">
-        <v>11.14967991628253</v>
+        <v>10.759220412910109</v>
       </c>
       <c r="C5">
         <v>0.21691973969630851</v>
@@ -2301,12 +2301,12 @@
         <v>33.839479392624725</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12.850885223924058</v>
       </c>
       <c r="B6">
-        <v>12.587724652206678</v>
+        <v>13.157894736842103</v>
       </c>
       <c r="C6">
         <v>1.0964912280701844</v>
@@ -2333,12 +2333,12 @@
         <v>31.798245614035082</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11.471212749033842</v>
       </c>
       <c r="B7">
-        <v>11.087420042643913</v>
+        <v>13.006396588486147</v>
       </c>
       <c r="C7">
         <v>0.42643923240939241</v>
@@ -2365,12 +2365,12 @@
         <v>19.189765458422169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>13.082039911308208</v>
       </c>
       <c r="B8">
-        <v>13.968957871396892</v>
+        <v>12.904659025949261</v>
       </c>
       <c r="C8">
         <v>3.104212860310418</v>
@@ -2397,12 +2397,12 @@
         <v>25.942350332594245</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12.026146450333597</v>
       </c>
       <c r="B9">
-        <v>13.681914551845043</v>
+        <v>12.461876297828155</v>
       </c>
       <c r="C9">
         <v>3.0501089324618702</v>
@@ -2429,12 +2429,12 @@
         <v>18.954248366013072</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13.972605526719462</v>
       </c>
       <c r="B10">
-        <v>14.520549338702192</v>
+        <v>13.333331939836611</v>
       </c>
       <c r="C10">
         <v>2.2831050228310446</v>
@@ -2461,12 +2461,12 @@
         <v>36.30136986301369</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13.376076201088406</v>
       </c>
       <c r="B11">
-        <v>12.905988122662926</v>
+        <v>13.50427611261351</v>
       </c>
       <c r="C11">
         <v>1.2820512820512775</v>
@@ -2493,12 +2493,12 @@
         <v>25.854700854700852</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15.384615384615374</v>
       </c>
       <c r="B12">
-        <v>16.087914725274732</v>
+        <v>15.692313058035712</v>
       </c>
       <c r="C12">
         <v>0.659340659340657</v>
@@ -2525,12 +2525,12 @@
         <v>21.538461538461529</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15.859030837004395</v>
       </c>
       <c r="B13">
-        <v>16.167406277533036</v>
+        <v>14.757709251101314</v>
       </c>
       <c r="C13">
         <v>0.66079295154184425</v>
@@ -2557,12 +2557,12 @@
         <v>29.955947136563886</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16.469306276555695</v>
       </c>
       <c r="B14">
-        <v>15.701762390350883</v>
+        <v>14.495622066029391</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2589,12 +2589,12 @@
         <v>11.842105263157897</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>16.060933143192369</v>
       </c>
       <c r="B15">
-        <v>15.473348531011965</v>
+        <v>15.10337854495376</v>
       </c>
       <c r="C15">
         <v>0.21762785636560977</v>
@@ -2621,12 +2621,12 @@
         <v>13.384113166485312</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15.363949971129664</v>
       </c>
       <c r="B16">
-        <v>15.453527435610305</v>
+        <v>14.535272989134263</v>
       </c>
       <c r="C16">
         <v>0.67189249720045474</v>
@@ -2653,12 +2653,12 @@
         <v>18.477043673012329</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15.158371040723972</v>
       </c>
       <c r="B17">
-        <v>15.85973676470589</v>
+        <v>15.384615384615374</v>
       </c>
       <c r="C17">
         <v>0.67873303167420573</v>
@@ -2685,12 +2685,12 @@
         <v>21.040723981900445</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16.030873695045432</v>
       </c>
       <c r="B18">
-        <v>16.119081918412338</v>
+        <v>14.707830696147962</v>
       </c>
       <c r="C18">
         <v>0.7717750826901959</v>
@@ -2717,12 +2717,12 @@
         <v>19.845644983461952</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15.307014866879154</v>
       </c>
       <c r="B19">
-        <v>15.175441228070174</v>
+        <v>14.539471007230031</v>
       </c>
       <c r="C19">
         <v>0.21929824561404132</v>
@@ -2749,12 +2749,12 @@
         <v>13.157894736842103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15.479456235284704</v>
       </c>
       <c r="B20">
-        <v>15.890412328767134</v>
+        <v>15.251145733001593</v>
       </c>
       <c r="C20">
         <v>0.79908675799087447</v>
@@ -2781,12 +2781,12 @@
         <v>20.091324200913242</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>15.100219998434072</v>
       </c>
       <c r="B21">
-        <v>14.587973273942101</v>
+        <v>14.253897550111351</v>
       </c>
       <c r="C21">
         <v>0.55679287305121505</v>
@@ -2813,12 +2813,12 @@
         <v>18.374164810690431</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>17.038721592931427</v>
       </c>
       <c r="B22">
-        <v>16.697035943728689</v>
+        <v>15.922549862524949</v>
       </c>
       <c r="C22">
         <v>1.1389521640091216</v>
@@ -2845,12 +2845,12 @@
         <v>31.890660592255117</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>16.554809843400452</v>
       </c>
       <c r="B23">
-        <v>16.062637090149657</v>
+        <v>15.995525727069349</v>
       </c>
       <c r="C23">
         <v>1.3422818791946289</v>
@@ -2877,12 +2877,12 @@
         <v>29.977628635346765</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15.353540833684054</v>
       </c>
       <c r="B24">
-        <v>15.824915824915831</v>
+        <v>14.882158992266437</v>
       </c>
       <c r="C24">
         <v>1.3468013468013407</v>
@@ -2909,12 +2909,12 @@
         <v>34.231200897867573</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>16.709959352171211</v>
       </c>
       <c r="B25">
-        <v>15.735933378145251</v>
+        <v>15.303032945244821</v>
       </c>
       <c r="C25">
         <v>1.0822510822510845</v>
@@ -2941,12 +2941,12 @@
         <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16.737435623254182</v>
       </c>
       <c r="B26">
-        <v>16.290508248952506</v>
+        <v>15.575421722241579</v>
       </c>
       <c r="C26">
         <v>1.6759776536312776</v>
@@ -2973,12 +2973,12 @@
         <v>31.620111731843579</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16.2264232233283</v>
       </c>
       <c r="B27">
-        <v>16.204217536071042</v>
+        <v>15.471700822870371</v>
       </c>
       <c r="C27">
         <v>1.2208657047724669</v>
@@ -3005,12 +3005,12 @@
         <v>26.526082130965591</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17.017342451679895</v>
       </c>
       <c r="B28">
-        <v>16.138732557351897</v>
+        <v>16.06936416184972</v>
       </c>
       <c r="C28">
         <v>1.2716763005780285</v>
@@ -3037,12 +3037,12 @@
         <v>31.329479768786129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>14.73452137634823</v>
       </c>
       <c r="B29">
-        <v>15.132748764173121</v>
+        <v>14.690270888066914</v>
       </c>
       <c r="C29">
         <v>0.77433628318583914</v>
@@ -3069,12 +3069,12 @@
         <v>30.86283185840708</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15.951059445390658</v>
       </c>
       <c r="B30">
-        <v>15.728590034934609</v>
+        <v>16.284763561074755</v>
       </c>
       <c r="C30">
         <v>1.1123470522803158</v>
@@ -3101,12 +3101,12 @@
         <v>30.144605116796441</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>16.919486581096855</v>
       </c>
       <c r="B31">
-        <v>17.572933094643407</v>
+        <v>17.246206276892529</v>
       </c>
       <c r="C31">
         <v>1.2835472578763163</v>
@@ -3133,12 +3133,12 @@
         <v>27.654609101516915</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>16.571433937156588</v>
       </c>
       <c r="B32">
-        <v>14.351645668784396</v>
+        <v>14.681315998454725</v>
       </c>
       <c r="C32">
         <v>3.2967032967033072</v>
@@ -3165,12 +3165,12 @@
         <v>50.549450549450547</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>17.052865645212378</v>
       </c>
       <c r="B33">
-        <v>14.848143982002249</v>
+        <v>15.703034374121261</v>
       </c>
       <c r="C33">
         <v>2.8121484814398245</v>
@@ -3197,12 +3197,12 @@
         <v>43.307086614173215</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16.305312435183851</v>
       </c>
       <c r="B34">
-        <v>14.623901907321679</v>
+        <v>14.225661016143576</v>
       </c>
       <c r="C34">
         <v>2.3230088495575174</v>
@@ -3229,12 +3229,12 @@
         <v>43.584070796460182</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16.0666639539931</v>
       </c>
       <c r="B35">
-        <v>14.666666666666671</v>
+        <v>14.288886176215332</v>
       </c>
       <c r="C35">
         <v>2.8888888888888964</v>
@@ -3261,12 +3261,12 @@
         <v>38.777777777777779</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15.584997046599103</v>
       </c>
       <c r="B36">
-        <v>14.459161147902865</v>
+        <v>14.326716206194812</v>
       </c>
       <c r="C36">
         <v>5.2980132450331174</v>
@@ -3293,12 +3293,12 @@
         <v>52.649006622516545</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>17.52232142857142</v>
       </c>
       <c r="B37">
-        <v>14.821434020996094</v>
+        <v>15.446431296212282</v>
       </c>
       <c r="C37">
         <v>3.4598214285714191</v>
@@ -3325,12 +3325,12 @@
         <v>46.428571428571416</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>15.521407729315273</v>
       </c>
       <c r="B38">
-        <v>15.126240266534019</v>
+        <v>16.575192096597146</v>
       </c>
       <c r="C38">
         <v>3.2930845225027428</v>
@@ -3357,12 +3357,12 @@
         <v>39.95609220636662</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>15.322937147654558</v>
       </c>
       <c r="B39">
-        <v>14.521160847891101</v>
+        <v>15.501121741891755</v>
       </c>
       <c r="C39">
         <v>3.2293986636971139</v>
@@ -3389,12 +3389,12 @@
         <v>43.541202672605792</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16.339589111597341</v>
       </c>
       <c r="B40">
-        <v>14.509368862837713</v>
+        <v>14.22271223814775</v>
       </c>
       <c r="C40">
         <v>2.3153252480705655</v>
@@ -3421,12 +3421,12 @@
         <v>44.873208379272334</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>15.933336046006886</v>
       </c>
       <c r="B41">
-        <v>14.777777777777779</v>
+        <v>15.488891601562461</v>
       </c>
       <c r="C41">
         <v>5.555555555555558</v>
@@ -3453,12 +3453,12 @@
         <v>49.888888888888893</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16.546678918553148</v>
       </c>
       <c r="B42">
-        <v>16.310461192350957</v>
+        <v>15.781782770317765</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3485,12 +3485,12 @@
         <v>12.710911136107983</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16.700229175405479</v>
       </c>
       <c r="B43">
-        <v>16.621921206480692</v>
+        <v>15.995525727069349</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3517,12 +3517,12 @@
         <v>11.465324384787468</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16.442684989942123</v>
       </c>
       <c r="B44">
-        <v>16.284593251517499</v>
+        <v>16.103893346802643</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3549,12 +3549,12 @@
         <v>15.527950310559003</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>17.212934717286799</v>
       </c>
       <c r="B45">
-        <v>16.867341006479929</v>
+        <v>16.655521116394922</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3581,12 +3581,12 @@
         <v>10.813823857302118</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16.237402015677493</v>
       </c>
       <c r="B46">
-        <v>15.65510065264557</v>
+        <v>15.363949971129621</v>
       </c>
       <c r="C46">
         <v>5.5991041433367528E-2</v>
@@ -3613,12 +3613,12 @@
         <v>15.341545352743569</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16.672363281250036</v>
       </c>
       <c r="B47">
-        <v>16.512823295049863</v>
+        <v>16.307696481036359</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3645,12 +3645,12 @@
         <v>16.75213675213676</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16.869083500174085</v>
       </c>
       <c r="B48">
-        <v>16.267409470752092</v>
+        <v>15.543175487465177</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3677,12 +3677,12 @@
         <v>10.250696378830092</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16.998273466701441</v>
       </c>
       <c r="B49">
-        <v>16.216216216216207</v>
+        <v>16.250717399996439</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3709,12 +3709,12 @@
         <v>13.858539390454293</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16.6217705483656</v>
       </c>
       <c r="B50">
-        <v>16.487095893834169</v>
+        <v>15.768799102132425</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3741,12 +3741,12 @@
         <v>12.401795735129074</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>16.605921160930404</v>
       </c>
       <c r="B51">
-        <v>16.50341963713695</v>
+        <v>16.059225512528474</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3773,12 +3773,12 @@
         <v>15.261958997722092</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>18.802059193168862</v>
       </c>
       <c r="B52">
-        <v>18.36851112378779</v>
+        <v>18.231608537150599</v>
       </c>
       <c r="C52">
         <v>0.45636052481461409</v>
@@ -3805,12 +3805,12 @@
         <v>21.620079863091846</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>18.860466535701281</v>
       </c>
       <c r="B53">
-        <v>18.604651162790709</v>
+        <v>18.1046525822129</v>
       </c>
       <c r="C53">
         <v>0.34883720930232176</v>
@@ -3837,12 +3837,12 @@
         <v>19.418604651162784</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>19.055843408175011</v>
       </c>
       <c r="B54">
-        <v>18.422567645365561</v>
+        <v>18.364997121473813</v>
       </c>
       <c r="C54">
         <v>0.63327576280944875</v>
@@ -3869,12 +3869,12 @@
         <v>19.17098445595855</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>19.054139400819082</v>
       </c>
       <c r="B55">
-        <v>18.655279001958689</v>
+        <v>18.19943854611823</v>
       </c>
       <c r="C55">
         <v>0.79772079772080229</v>
@@ -3901,12 +3901,12 @@
         <v>19.259259259259267</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>19.072998329772606</v>
       </c>
       <c r="B56">
-        <v>18.539976825028969</v>
+        <v>18.250289687137887</v>
       </c>
       <c r="C56">
         <v>0.69524913093859109</v>
@@ -3933,12 +3933,12 @@
         <v>25.202780996523757</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>18.654501207062424</v>
       </c>
       <c r="B57">
-        <v>18.677314575612879</v>
+        <v>17.947551244476912</v>
       </c>
       <c r="C57">
         <v>0.51311288483466555</v>
@@ -3965,12 +3965,12 @@
         <v>20.809578107183579</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>18.811425781249991</v>
       </c>
       <c r="B58">
-        <v>18.26286272321429</v>
+        <v>17.622865513392849</v>
       </c>
       <c r="C58">
         <v>0.34285714285713365</v>
@@ -3997,12 +3997,12 @@
         <v>19.314285714285706</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>18.526197399431489</v>
       </c>
       <c r="B59">
-        <v>18.27289271642918</v>
+        <v>18.054121914579735</v>
       </c>
       <c r="C59">
         <v>0.63327576280944875</v>
@@ -4029,12 +4029,12 @@
         <v>20.26482440990214</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>18.411803610677822</v>
       </c>
       <c r="B60">
-        <v>18.389106702885716</v>
+        <v>17.765170230962845</v>
       </c>
       <c r="C60">
         <v>0.28360748723765816</v>
@@ -4061,12 +4061,12 @@
         <v>20.36301758366421</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>18.731431361607154</v>
       </c>
       <c r="B61">
-        <v>18.720005580357135</v>
+        <v>17.965722656250005</v>
       </c>
       <c r="C61">
         <v>0.57142857142857828</v>
@@ -4093,12 +4093,12 @@
         <v>20.171428571428574</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>19.121894858463317</v>
       </c>
       <c r="B62">
-        <v>19.075675977578001</v>
+        <v>18.128252387528889</v>
       </c>
       <c r="C62">
         <v>0.86655112651645716</v>
@@ -4125,12 +4125,12 @@
         <v>24.898902368573083</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>19.045425599302757</v>
       </c>
       <c r="B63">
-        <v>18.757904035185447</v>
+        <v>18.412878158244684</v>
       </c>
       <c r="C63">
         <v>0.74755606670500185</v>
@@ -4157,12 +4157,12 @@
         <v>21.794134560092004</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>19.163332176755009</v>
       </c>
       <c r="B64">
-        <v>18.785103084706311</v>
+        <v>18.636100353689123</v>
       </c>
       <c r="C64">
         <v>0.8022922636103047</v>
@@ -4189,12 +4189,12 @@
         <v>25.959885386819479</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>19.175864566707766</v>
       </c>
       <c r="B65">
-        <v>19.001749650863321</v>
+        <v>18.641907907265697</v>
       </c>
       <c r="C65">
         <v>0.69645966337783527</v>
@@ -4221,12 +4221,12 @@
         <v>25.88508415554265</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>19.365268185588569</v>
       </c>
       <c r="B66">
-        <v>19.284474966640207</v>
+        <v>18.315069041221864</v>
       </c>
       <c r="C66">
         <v>1.1540680900173017</v>
@@ -4253,12 +4253,12 @@
         <v>24.177726485862671</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>18.786856376665241</v>
       </c>
       <c r="B67">
-        <v>18.775507436047345</v>
+        <v>18.174608710671759</v>
       </c>
       <c r="C67">
         <v>0.85034013605442826</v>
@@ -4285,12 +4285,12 @@
         <v>26.417233560090715</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>19.214332620233975</v>
       </c>
       <c r="B68">
-        <v>19.087241275816002</v>
+        <v>18.625080675007212</v>
       </c>
       <c r="C68">
         <v>0.92432120161756171</v>
@@ -4317,12 +4317,12 @@
         <v>28.59618717504333</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>19.087326694542249</v>
       </c>
       <c r="B69">
-        <v>18.850709727112669</v>
+        <v>18.400005501760553</v>
       </c>
       <c r="C69">
         <v>0.78873239436618725</v>
@@ -4349,12 +4349,12 @@
         <v>26.478873239436631</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>19.173458929805708</v>
       </c>
       <c r="B70">
-        <v>18.870784239941084</v>
+        <v>18.544818136550511</v>
       </c>
       <c r="C70">
         <v>0.87310826542490449</v>
@@ -4381,12 +4381,12 @@
         <v>26.600698486612352</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>19.24744000320695</v>
       </c>
       <c r="B71">
-        <v>19.042189281641964</v>
+        <v>18.586088939566704</v>
       </c>
       <c r="C71">
         <v>0.79817559863168963</v>
@@ -4411,6 +4411,326 @@
       </c>
       <c r="J71">
         <v>29.589509692132275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>18.317972350230406</v>
+      </c>
+      <c r="B72">
+        <v>18.064521754392281</v>
+      </c>
+      <c r="C72">
+        <v>1.2672811059907918</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>7.4308755760368772</v>
+      </c>
+      <c r="F72">
+        <v>1.9930875576036788</v>
+      </c>
+      <c r="G72">
+        <v>27.188940092165904</v>
+      </c>
+      <c r="H72">
+        <v>18.087557603686633</v>
+      </c>
+      <c r="I72">
+        <v>17.569124423963125</v>
+      </c>
+      <c r="J72">
+        <v>37.096774193548377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>18.554354012521344</v>
+      </c>
+      <c r="B73">
+        <v>17.848611135813886</v>
+      </c>
+      <c r="C73">
+        <v>1.0813887307911108</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>7.0688673875924923</v>
+      </c>
+      <c r="F73">
+        <v>1.5367103016505457</v>
+      </c>
+      <c r="G73">
+        <v>30.051223676721683</v>
+      </c>
+      <c r="H73">
+        <v>17.814456459874783</v>
+      </c>
+      <c r="I73">
+        <v>17.472965281730211</v>
+      </c>
+      <c r="J73">
+        <v>38.474672737620949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>18.838929994308472</v>
+      </c>
+      <c r="B74">
+        <v>18.508819076373072</v>
+      </c>
+      <c r="C74">
+        <v>1.195219123505975</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>7.6266363118952851</v>
+      </c>
+      <c r="F74">
+        <v>1.8212862834376731</v>
+      </c>
+      <c r="G74">
+        <v>25.15651678998292</v>
+      </c>
+      <c r="H74">
+        <v>18.326693227091639</v>
+      </c>
+      <c r="I74">
+        <v>17.586795674445078</v>
+      </c>
+      <c r="J74">
+        <v>40.466704610130911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>18.124999999999993</v>
+      </c>
+      <c r="B75">
+        <v>17.829548228870728</v>
+      </c>
+      <c r="C75">
+        <v>0.90909090909090384</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>7.7272727272727382</v>
+      </c>
+      <c r="F75">
+        <v>1.5909090909090873</v>
+      </c>
+      <c r="G75">
+        <v>29.715909090909086</v>
+      </c>
+      <c r="H75">
+        <v>17.954545454545446</v>
+      </c>
+      <c r="I75">
+        <v>17.443181818181806</v>
+      </c>
+      <c r="J75">
+        <v>35.965909090909086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>18.135593220338976</v>
+      </c>
+      <c r="B76">
+        <v>18.112999867584744</v>
+      </c>
+      <c r="C76">
+        <v>1.1299435028248483</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>8.0790960451977423</v>
+      </c>
+      <c r="F76">
+        <v>1.8644067796610209</v>
+      </c>
+      <c r="G76">
+        <v>26.15819209039547</v>
+      </c>
+      <c r="H76">
+        <v>17.853107344632768</v>
+      </c>
+      <c r="I76">
+        <v>17.401129943502823</v>
+      </c>
+      <c r="J76">
+        <v>36.045197740112989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>18.806818181818173</v>
+      </c>
+      <c r="B77">
+        <v>18.090917413884931</v>
+      </c>
+      <c r="C77">
+        <v>1.3068181818181923</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>7.2159090909091006</v>
+      </c>
+      <c r="F77">
+        <v>1.931818181818179</v>
+      </c>
+      <c r="G77">
+        <v>25.454545454545464</v>
+      </c>
+      <c r="H77">
+        <v>18.01136363636364</v>
+      </c>
+      <c r="I77">
+        <v>18.124999999999993</v>
+      </c>
+      <c r="J77">
+        <v>40.795454545454547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>18.108882521489967</v>
+      </c>
+      <c r="B78">
+        <v>17.753584460064474</v>
+      </c>
+      <c r="C78">
+        <v>1.0315186246418362</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>6.4756446991403926</v>
+      </c>
+      <c r="F78">
+        <v>1.6045845272206316</v>
+      </c>
+      <c r="G78">
+        <v>26.017191977077371</v>
+      </c>
+      <c r="H78">
+        <v>17.650429799426924</v>
+      </c>
+      <c r="I78">
+        <v>17.421203438395416</v>
+      </c>
+      <c r="J78">
+        <v>45.042979942693421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>18.470254957507095</v>
+      </c>
+      <c r="B79">
+        <v>17.427767572592078</v>
+      </c>
+      <c r="C79">
+        <v>1.076487252124636</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>7.3654390934844161</v>
+      </c>
+      <c r="F79">
+        <v>1.5864022662889443</v>
+      </c>
+      <c r="G79">
+        <v>25.552407932011324</v>
+      </c>
+      <c r="H79">
+        <v>17.620396600566579</v>
+      </c>
+      <c r="I79">
+        <v>17.280453257790374</v>
+      </c>
+      <c r="J79">
+        <v>39.716713881019828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>17.986030267753208</v>
+      </c>
+      <c r="B80">
+        <v>17.939468756821174</v>
+      </c>
+      <c r="C80">
+        <v>1.3387660069848595</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>6.9266589057042971</v>
+      </c>
+      <c r="F80">
+        <v>1.8626309662398199</v>
+      </c>
+      <c r="G80">
+        <v>27.706635622817231</v>
+      </c>
+      <c r="H80">
+        <v>17.927823050058201</v>
+      </c>
+      <c r="I80">
+        <v>17.462165308498246</v>
+      </c>
+      <c r="J80">
+        <v>40.395809080325961</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>18.12998859749144</v>
+      </c>
+      <c r="B81">
+        <v>17.286200180836666</v>
+      </c>
+      <c r="C81">
+        <v>0.79817559863168963</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>6.8415051311288444</v>
+      </c>
+      <c r="F81">
+        <v>1.6533637400228063</v>
+      </c>
+      <c r="G81">
+        <v>24.116305587229192</v>
+      </c>
+      <c r="H81">
+        <v>17.844925883694419</v>
+      </c>
+      <c r="I81">
+        <v>17.217787913340942</v>
+      </c>
+      <c r="J81">
+        <v>37.22919042189281</v>
       </c>
     </row>
   </sheetData>
